--- a/Code/Results/Cases/Case_0_100/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_100/res_line/loading_percent.xlsx
@@ -424,28 +424,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.364785772020512</v>
+        <v>4.92074263832864</v>
       </c>
       <c r="D2">
-        <v>6.16553792886805</v>
+        <v>9.667037446485168</v>
       </c>
       <c r="E2">
-        <v>10.36557683021653</v>
+        <v>13.75795227573975</v>
       </c>
       <c r="F2">
-        <v>31.70489571549744</v>
+        <v>30.96085758376382</v>
       </c>
       <c r="G2">
-        <v>43.01400288663965</v>
+        <v>33.36414497991095</v>
       </c>
       <c r="H2">
-        <v>11.5889770470038</v>
+        <v>14.37340777224149</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.434892672696291</v>
+        <v>9.73228269459122</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>25.60720851682374</v>
+        <v>18.99769123883711</v>
       </c>
       <c r="O2">
-        <v>22.51433923721521</v>
+        <v>22.74505173743382</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,28 +471,28 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>6.846240073620854</v>
+        <v>4.749564103841492</v>
       </c>
       <c r="D3">
-        <v>6.048698797235077</v>
+        <v>9.673078951589259</v>
       </c>
       <c r="E3">
-        <v>9.977553410068758</v>
+        <v>13.72986351928126</v>
       </c>
       <c r="F3">
-        <v>29.88221118165858</v>
+        <v>30.60052972713536</v>
       </c>
       <c r="G3">
-        <v>40.182184016408</v>
+        <v>32.53886467159878</v>
       </c>
       <c r="H3">
-        <v>11.09029375721316</v>
+        <v>14.3199452415204</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.280239332589745</v>
+        <v>9.734587955838204</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>24.22561817997339</v>
+        <v>18.40031508502701</v>
       </c>
       <c r="O3">
-        <v>21.25644384584415</v>
+        <v>22.51172477890321</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,28 +518,28 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.510974216737115</v>
+        <v>4.642857908240394</v>
       </c>
       <c r="D4">
-        <v>5.979495436363885</v>
+        <v>9.678311898181713</v>
       </c>
       <c r="E4">
-        <v>9.739703251857005</v>
+        <v>13.71559754511369</v>
       </c>
       <c r="F4">
-        <v>28.73150908099826</v>
+        <v>30.38616264653965</v>
       </c>
       <c r="G4">
-        <v>38.37358994555438</v>
+        <v>32.03238208946642</v>
       </c>
       <c r="H4">
-        <v>10.78186066665678</v>
+        <v>14.29036715736524</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.187915224630921</v>
+        <v>9.737749318922146</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>23.33595077662917</v>
+        <v>18.02485520896362</v>
       </c>
       <c r="O4">
-        <v>20.46415555633374</v>
+        <v>22.3736556215559</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,28 +565,28 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.370057459862536</v>
+        <v>4.599049569503514</v>
       </c>
       <c r="D5">
-        <v>5.951945167479695</v>
+        <v>9.680827631217131</v>
       </c>
       <c r="E5">
-        <v>9.642994901309281</v>
+        <v>13.71053700801886</v>
       </c>
       <c r="F5">
-        <v>28.25508874155739</v>
+        <v>30.30063607324135</v>
       </c>
       <c r="G5">
-        <v>37.61929521263319</v>
+        <v>31.82639236883763</v>
       </c>
       <c r="H5">
-        <v>10.6557651001754</v>
+        <v>14.27913879270429</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.150977475390587</v>
+        <v>9.739476756589896</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>22.96331756195408</v>
+        <v>17.86990355188765</v>
       </c>
       <c r="O5">
-        <v>20.13660032291969</v>
+        <v>22.31875788180941</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,28 +612,28 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.346397632422371</v>
+        <v>4.591758020446908</v>
       </c>
       <c r="D6">
-        <v>5.947410125641346</v>
+        <v>9.681268518400826</v>
       </c>
       <c r="E6">
-        <v>9.626953351004005</v>
+        <v>13.70974227467605</v>
       </c>
       <c r="F6">
-        <v>28.17554152492369</v>
+        <v>30.28654782818233</v>
       </c>
       <c r="G6">
-        <v>37.49301260087032</v>
+        <v>31.79222273498753</v>
       </c>
       <c r="H6">
-        <v>10.63480746967423</v>
+        <v>14.27732437483244</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.144886034409765</v>
+        <v>9.739790120798029</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>22.90084339962192</v>
+        <v>17.84406337566597</v>
       </c>
       <c r="O6">
-        <v>20.08193759435209</v>
+        <v>22.30972639537129</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,28 +659,28 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6.509091211159689</v>
+        <v>4.642268300577506</v>
       </c>
       <c r="D7">
-        <v>5.979121232817429</v>
+        <v>9.678344274245845</v>
       </c>
       <c r="E7">
-        <v>9.738397964591803</v>
+        <v>13.71552624415191</v>
       </c>
       <c r="F7">
-        <v>28.72511361591275</v>
+        <v>30.38500166663774</v>
       </c>
       <c r="G7">
-        <v>38.36348674522112</v>
+        <v>32.02960193277746</v>
       </c>
       <c r="H7">
-        <v>10.78016152106611</v>
+        <v>14.29021237756461</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.187414265150943</v>
+        <v>9.737770837578809</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>23.33096569062624</v>
+        <v>18.02277304767603</v>
       </c>
       <c r="O7">
-        <v>20.45975654532555</v>
+        <v>22.37290964086522</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>7.189463573577099</v>
+        <v>4.862097684253743</v>
       </c>
       <c r="D8">
-        <v>6.124733252463919</v>
+        <v>9.668804505872741</v>
       </c>
       <c r="E8">
-        <v>10.23177039844081</v>
+        <v>13.74765091334313</v>
       </c>
       <c r="F8">
-        <v>31.0832142760545</v>
+        <v>30.83525117583891</v>
       </c>
       <c r="G8">
-        <v>42.05221893137324</v>
+        <v>33.07974150062998</v>
       </c>
       <c r="H8">
-        <v>11.41758284437547</v>
+        <v>14.35430495193129</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.381035107719935</v>
+        <v>9.732715306555381</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>25.1395913014106</v>
+        <v>18.79364780656867</v>
       </c>
       <c r="O8">
-        <v>22.08492388628726</v>
+        <v>22.66355957609677</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,28 +753,28 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>8.392105458334703</v>
+        <v>5.277361014224199</v>
       </c>
       <c r="D9">
-        <v>6.429839005012797</v>
+        <v>9.662173792963561</v>
       </c>
       <c r="E9">
-        <v>11.19797791813011</v>
+        <v>13.83411694412132</v>
       </c>
       <c r="F9">
-        <v>35.4432677183291</v>
+        <v>31.76813656619932</v>
       </c>
       <c r="G9">
-        <v>48.79131590123975</v>
+        <v>35.12644522169612</v>
       </c>
       <c r="H9">
-        <v>12.64412572632529</v>
+        <v>14.50535820220201</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.780686767862504</v>
+        <v>9.736643243213134</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>28.34722074380644</v>
+        <v>20.2273683202997</v>
       </c>
       <c r="O9">
-        <v>25.10340968549684</v>
+        <v>23.27195346769959</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,28 +800,28 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>9.198928699467094</v>
+        <v>5.569097360694976</v>
       </c>
       <c r="D10">
-        <v>6.665240540989616</v>
+        <v>9.664645213267283</v>
       </c>
       <c r="E10">
-        <v>11.90226608419381</v>
+        <v>13.91166879830033</v>
       </c>
       <c r="F10">
-        <v>38.47425587020178</v>
+        <v>32.47761986149001</v>
       </c>
       <c r="G10">
-        <v>53.43584814689478</v>
+        <v>36.60406146725441</v>
       </c>
       <c r="H10">
-        <v>13.52519136752951</v>
+        <v>14.63119705848085</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.085429777128105</v>
+        <v>9.747943953925418</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>30.48602834203865</v>
+        <v>21.22223697909767</v>
       </c>
       <c r="O10">
-        <v>27.39675231290627</v>
+        <v>23.73848429676603</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,28 +847,28 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>9.550124647747877</v>
+        <v>5.698257383232274</v>
       </c>
       <c r="D11">
-        <v>6.774660461597398</v>
+        <v>9.66735770262812</v>
       </c>
       <c r="E11">
-        <v>12.22079331499511</v>
+        <v>13.94992080461271</v>
       </c>
       <c r="F11">
-        <v>39.87508139136631</v>
+        <v>32.80423388496732</v>
       </c>
       <c r="G11">
-        <v>55.47178374425486</v>
+        <v>37.26706215651713</v>
       </c>
       <c r="H11">
-        <v>13.92094424818169</v>
+        <v>14.69152319190206</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>7.226337152865886</v>
+        <v>9.754903559497093</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>31.41016321374476</v>
+        <v>21.66018057919901</v>
       </c>
       <c r="O11">
-        <v>28.45219724032796</v>
+        <v>23.95410895876936</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,28 +894,28 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>9.680909812559062</v>
+        <v>5.746609374124008</v>
       </c>
       <c r="D12">
-        <v>6.816424549090212</v>
+        <v>9.668612479726175</v>
       </c>
       <c r="E12">
-        <v>12.34111357270752</v>
+        <v>13.96482610652037</v>
       </c>
       <c r="F12">
-        <v>40.4107060087729</v>
+        <v>32.928354529016</v>
       </c>
       <c r="G12">
-        <v>56.2320017023258</v>
+        <v>37.51653606913369</v>
       </c>
       <c r="H12">
-        <v>14.07005371619683</v>
+        <v>14.71479642540435</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>7.280017550329247</v>
+        <v>9.757799456284602</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>31.75299711977163</v>
+        <v>21.82377585682186</v>
       </c>
       <c r="O12">
-        <v>28.84608801258898</v>
+        <v>24.03617626535241</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>9.652839759781353</v>
+        <v>5.736221423675627</v>
       </c>
       <c r="D13">
-        <v>6.80741533287472</v>
+        <v>9.668332131241389</v>
       </c>
       <c r="E13">
-        <v>12.31521405763122</v>
+        <v>13.96159742434225</v>
       </c>
       <c r="F13">
-        <v>40.29566430872178</v>
+        <v>32.90160525344557</v>
       </c>
       <c r="G13">
-        <v>56.06874741963041</v>
+        <v>37.46288220902905</v>
       </c>
       <c r="H13">
-        <v>14.03797400803657</v>
+        <v>14.70976526868489</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>7.268442223191754</v>
+        <v>9.757164209302486</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>31.67947945617568</v>
+        <v>21.78864458690801</v>
       </c>
       <c r="O13">
-        <v>28.76151053455071</v>
+        <v>24.01848431984365</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,28 +988,28 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>9.560928185684206</v>
+        <v>5.702246767003802</v>
       </c>
       <c r="D14">
-        <v>6.778089846576179</v>
+        <v>9.667456376952487</v>
       </c>
       <c r="E14">
-        <v>12.2306982437268</v>
+        <v>13.95113869827613</v>
       </c>
       <c r="F14">
-        <v>39.91928965050489</v>
+        <v>32.81443723296704</v>
       </c>
       <c r="G14">
-        <v>55.53454068085587</v>
+        <v>37.28761987037135</v>
       </c>
       <c r="H14">
-        <v>13.93322674410255</v>
+        <v>14.69342937958439</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>7.230747030853671</v>
+        <v>9.755136593949604</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>31.43851144188476</v>
+        <v>21.67368539489659</v>
       </c>
       <c r="O14">
-        <v>28.48471761170057</v>
+        <v>23.96085279118066</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,28 +1035,28 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>9.504344741312426</v>
+        <v>5.681362318579184</v>
       </c>
       <c r="D15">
-        <v>6.760169869051443</v>
+        <v>9.666949569670352</v>
       </c>
       <c r="E15">
-        <v>12.17889029670101</v>
+        <v>13.94478690389393</v>
       </c>
       <c r="F15">
-        <v>39.68782433347768</v>
+        <v>32.7610980207413</v>
       </c>
       <c r="G15">
-        <v>55.20593452152474</v>
+        <v>37.18005186979817</v>
       </c>
       <c r="H15">
-        <v>13.86896749875662</v>
+        <v>14.68347861846534</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>7.207699490713318</v>
+        <v>9.75392850268393</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>31.28998244549471</v>
+        <v>21.60297336126124</v>
       </c>
       <c r="O15">
-        <v>28.31442678986125</v>
+        <v>23.92560366731023</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,28 +1082,28 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>9.175664622077212</v>
+        <v>5.560580797131255</v>
       </c>
       <c r="D16">
-        <v>6.658136028609558</v>
+        <v>9.664499841887622</v>
       </c>
       <c r="E16">
-        <v>11.88140903223818</v>
+        <v>13.90922814636434</v>
       </c>
       <c r="F16">
-        <v>38.38586603059879</v>
+        <v>32.45634264733502</v>
       </c>
       <c r="G16">
-        <v>53.30127262033228</v>
+        <v>36.56052458280225</v>
       </c>
       <c r="H16">
-        <v>13.49922346174128</v>
+        <v>14.6273154247838</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>7.076266351515606</v>
+        <v>9.747525637272394</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>30.424642833461</v>
+        <v>21.19330956972086</v>
       </c>
       <c r="O16">
-        <v>27.32695650319795</v>
+        <v>23.72445479040506</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,28 +1129,28 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>8.970024188363041</v>
+        <v>5.485539969987388</v>
       </c>
       <c r="D17">
-        <v>6.596133767417789</v>
+        <v>9.663403286992464</v>
       </c>
       <c r="E17">
-        <v>11.69840939191622</v>
+        <v>13.88817041975878</v>
       </c>
       <c r="F17">
-        <v>37.60699678779513</v>
+        <v>32.27029187686021</v>
       </c>
       <c r="G17">
-        <v>52.1133290941031</v>
+        <v>36.17791568812812</v>
       </c>
       <c r="H17">
-        <v>13.27107680130516</v>
+        <v>14.59364058654374</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.996213771912653</v>
+        <v>9.744062813389085</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>29.88120505119274</v>
+        <v>20.93814219015166</v>
       </c>
       <c r="O17">
-        <v>26.71066865462052</v>
+        <v>23.60187428054179</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,28 +1176,28 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>8.850250472442884</v>
+        <v>5.442046567105474</v>
       </c>
       <c r="D18">
-        <v>6.560691653269449</v>
+        <v>9.662922122700738</v>
       </c>
       <c r="E18">
-        <v>11.59297877625582</v>
+        <v>13.87633891779273</v>
       </c>
       <c r="F18">
-        <v>37.15543211203072</v>
+        <v>32.16365129537094</v>
       </c>
       <c r="G18">
-        <v>51.42279547997849</v>
+        <v>35.95700053572269</v>
       </c>
       <c r="H18">
-        <v>13.13937776338451</v>
+        <v>14.57456264014793</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.950384065235789</v>
+        <v>9.742242366009144</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>29.56404287680425</v>
+        <v>20.79000725568362</v>
       </c>
       <c r="O18">
-        <v>26.35227802940336</v>
+        <v>23.53169342163403</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,28 +1223,28 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>8.809438333015169</v>
+        <v>5.427264976841398</v>
       </c>
       <c r="D19">
-        <v>6.548729594575746</v>
+        <v>9.662784914726263</v>
       </c>
       <c r="E19">
-        <v>11.55725317758361</v>
+        <v>13.87238134116863</v>
       </c>
       <c r="F19">
-        <v>37.00192508146156</v>
+        <v>32.12761190950909</v>
       </c>
       <c r="G19">
-        <v>51.18773752737197</v>
+        <v>35.88206529527492</v>
       </c>
       <c r="H19">
-        <v>13.09470638681006</v>
+        <v>14.56815355859889</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.934904021456302</v>
+        <v>9.741655441399654</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>29.45587200880245</v>
+        <v>20.73962067985785</v>
       </c>
       <c r="O19">
-        <v>26.2302551465392</v>
+        <v>23.50798931408281</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,28 +1270,28 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>8.992069167343645</v>
+        <v>5.493562905250962</v>
       </c>
       <c r="D20">
-        <v>6.602711309066994</v>
+        <v>9.663504544996403</v>
       </c>
       <c r="E20">
-        <v>11.71790832446872</v>
+        <v>13.8903830880996</v>
       </c>
       <c r="F20">
-        <v>37.69027913697855</v>
+        <v>32.29005976310985</v>
       </c>
       <c r="G20">
-        <v>52.24053707386859</v>
+        <v>36.21873491593544</v>
       </c>
       <c r="H20">
-        <v>13.29541285574272</v>
+        <v>14.59719531999458</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>7.004713376579461</v>
+        <v>9.744413717773465</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>29.93953086719064</v>
+        <v>20.96544799484619</v>
       </c>
       <c r="O20">
-        <v>26.77667784349823</v>
+        <v>23.61489016423105</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,28 +1317,28 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>9.587984090680836</v>
+        <v>5.712241443374218</v>
       </c>
       <c r="D21">
-        <v>6.78669455449212</v>
+        <v>9.667707436493352</v>
       </c>
       <c r="E21">
-        <v>12.25553086327319</v>
+        <v>13.95419934077855</v>
       </c>
       <c r="F21">
-        <v>40.03003239495559</v>
+        <v>32.84002960602491</v>
       </c>
       <c r="G21">
-        <v>55.6917389833044</v>
+        <v>37.33914387723863</v>
       </c>
       <c r="H21">
-        <v>13.96401410003991</v>
+        <v>14.69821609815435</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.24181030112885</v>
+        <v>9.755725095049558</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>31.50948335633596</v>
+        <v>21.70751365554066</v>
       </c>
       <c r="O21">
-        <v>28.56617373777508</v>
+        <v>23.9777698935494</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,28 +1364,28 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>9.964633318728708</v>
+        <v>5.851889344498632</v>
       </c>
       <c r="D22">
-        <v>6.90885639901872</v>
+        <v>9.671780550156853</v>
       </c>
       <c r="E22">
-        <v>12.60515400898508</v>
+        <v>13.99835171587834</v>
       </c>
       <c r="F22">
-        <v>41.57596472994631</v>
+        <v>33.20197221035591</v>
       </c>
       <c r="G22">
-        <v>57.88485471674165</v>
+        <v>38.0620167835626</v>
       </c>
       <c r="H22">
-        <v>14.41641332740514</v>
+        <v>14.7667327204538</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>7.39864502026315</v>
+        <v>9.764635163502508</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>32.49403281050594</v>
+        <v>22.17935961385674</v>
       </c>
       <c r="O22">
-        <v>29.70211196851901</v>
+        <v>24.21731728487552</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,28 +1411,28 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>9.764755994518588</v>
+        <v>5.777670146970684</v>
       </c>
       <c r="D23">
-        <v>6.843482007667387</v>
+        <v>9.669485582652163</v>
       </c>
       <c r="E23">
-        <v>12.41871867246666</v>
+        <v>13.97456568595166</v>
       </c>
       <c r="F23">
-        <v>40.75460284259943</v>
+        <v>33.00860570262229</v>
       </c>
       <c r="G23">
-        <v>56.71994001804763</v>
+        <v>37.67714822793447</v>
       </c>
       <c r="H23">
-        <v>14.16612312251337</v>
+        <v>14.72994077576615</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.314767653528598</v>
+        <v>9.759741260557734</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>31.97238356075506</v>
+        <v>21.92877110912573</v>
       </c>
       <c r="O23">
-        <v>29.09884570571356</v>
+        <v>24.08927243296245</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,28 +1458,28 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>8.982107460260542</v>
+        <v>5.489936827226254</v>
       </c>
       <c r="D24">
-        <v>6.599736967108274</v>
+        <v>9.663458301277922</v>
       </c>
       <c r="E24">
-        <v>11.70909354488104</v>
+        <v>13.88938188403093</v>
       </c>
       <c r="F24">
-        <v>37.65263897070849</v>
+        <v>32.28112168827893</v>
       </c>
       <c r="G24">
-        <v>52.18304994465606</v>
+        <v>36.20028347563829</v>
       </c>
       <c r="H24">
-        <v>13.2844121879202</v>
+        <v>14.59558734499342</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>7.000870101795627</v>
+        <v>9.744254543125468</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>29.91317649911916</v>
+        <v>20.95310750188672</v>
       </c>
       <c r="O24">
-        <v>26.74684780634013</v>
+        <v>23.60900476706787</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,28 +1505,28 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>8.080500567419898</v>
+        <v>5.167123255842959</v>
       </c>
       <c r="D25">
-        <v>6.345280460999135</v>
+        <v>9.662676225994339</v>
       </c>
       <c r="E25">
-        <v>10.93728959374537</v>
+        <v>13.80823951132426</v>
       </c>
       <c r="F25">
-        <v>34.29354948402273</v>
+        <v>31.51106847167192</v>
       </c>
       <c r="G25">
-        <v>47.01110440813974</v>
+        <v>34.57607532276501</v>
       </c>
       <c r="H25">
-        <v>12.31551423367417</v>
+        <v>14.46183719371586</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.670553379796523</v>
+        <v>9.734100479248383</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>27.51708508088413</v>
+        <v>19.84905939529495</v>
       </c>
       <c r="O25">
-        <v>24.30601573933717</v>
+        <v>23.10364695539359</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_100/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_100/res_line/loading_percent.xlsx
@@ -424,28 +424,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.92074263832864</v>
+        <v>7.364785772020427</v>
       </c>
       <c r="D2">
-        <v>9.667037446485168</v>
+        <v>6.165537928867967</v>
       </c>
       <c r="E2">
-        <v>13.75795227573975</v>
+        <v>10.36557683021649</v>
       </c>
       <c r="F2">
-        <v>30.96085758376382</v>
+        <v>31.70489571549741</v>
       </c>
       <c r="G2">
-        <v>33.36414497991095</v>
+        <v>43.01400288663957</v>
       </c>
       <c r="H2">
-        <v>14.37340777224149</v>
+        <v>11.58897704700385</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>9.73228269459122</v>
+        <v>6.434892672696321</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>18.99769123883711</v>
+        <v>25.60720851682377</v>
       </c>
       <c r="O2">
-        <v>22.74505173743382</v>
+        <v>22.5143392372152</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,28 +471,28 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.749564103841492</v>
+        <v>6.846240073620846</v>
       </c>
       <c r="D3">
-        <v>9.673078951589259</v>
+        <v>6.048698797235018</v>
       </c>
       <c r="E3">
-        <v>13.72986351928126</v>
+        <v>9.977553410068676</v>
       </c>
       <c r="F3">
-        <v>30.60052972713536</v>
+        <v>29.88221118165854</v>
       </c>
       <c r="G3">
-        <v>32.53886467159878</v>
+        <v>40.18218401640804</v>
       </c>
       <c r="H3">
-        <v>14.3199452415204</v>
+        <v>11.09029375721314</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>9.734587955838204</v>
+        <v>6.280239332589684</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>18.40031508502701</v>
+        <v>24.22561817997341</v>
       </c>
       <c r="O3">
-        <v>22.51172477890321</v>
+        <v>21.25644384584414</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,28 +518,28 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.642857908240394</v>
+        <v>6.510974216737071</v>
       </c>
       <c r="D4">
-        <v>9.678311898181713</v>
+        <v>5.979495436363915</v>
       </c>
       <c r="E4">
-        <v>13.71559754511369</v>
+        <v>9.739703251857074</v>
       </c>
       <c r="F4">
-        <v>30.38616264653965</v>
+        <v>28.73150908099826</v>
       </c>
       <c r="G4">
-        <v>32.03238208946642</v>
+        <v>38.37358994555441</v>
       </c>
       <c r="H4">
-        <v>14.29036715736524</v>
+        <v>10.78186066665675</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>9.737749318922146</v>
+        <v>6.187915224630945</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>18.02485520896362</v>
+        <v>23.33595077662918</v>
       </c>
       <c r="O4">
-        <v>22.3736556215559</v>
+        <v>20.46415555633373</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,28 +565,28 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.599049569503514</v>
+        <v>6.37005745986257</v>
       </c>
       <c r="D5">
-        <v>9.680827631217131</v>
+        <v>5.951945167479706</v>
       </c>
       <c r="E5">
-        <v>13.71053700801886</v>
+        <v>9.642994901309262</v>
       </c>
       <c r="F5">
-        <v>30.30063607324135</v>
+        <v>28.25508874155739</v>
       </c>
       <c r="G5">
-        <v>31.82639236883763</v>
+        <v>37.6192952126331</v>
       </c>
       <c r="H5">
-        <v>14.27913879270429</v>
+        <v>10.65576510017542</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>9.739476756589896</v>
+        <v>6.150977475390556</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>17.86990355188765</v>
+        <v>22.96331756195407</v>
       </c>
       <c r="O5">
-        <v>22.31875788180941</v>
+        <v>20.13660032291968</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,28 +612,28 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.591758020446908</v>
+        <v>6.346397632422454</v>
       </c>
       <c r="D6">
-        <v>9.681268518400826</v>
+        <v>5.947410125641259</v>
       </c>
       <c r="E6">
-        <v>13.70974227467605</v>
+        <v>9.626953351003957</v>
       </c>
       <c r="F6">
-        <v>30.28654782818233</v>
+        <v>28.17554152492361</v>
       </c>
       <c r="G6">
-        <v>31.79222273498753</v>
+        <v>37.49301260087029</v>
       </c>
       <c r="H6">
-        <v>14.27732437483244</v>
+        <v>10.6348074696742</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>9.739790120798029</v>
+        <v>6.144886034409728</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>17.84406337566597</v>
+        <v>22.90084339962192</v>
       </c>
       <c r="O6">
-        <v>22.30972639537129</v>
+        <v>20.08193759435204</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,28 +659,28 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.642268300577506</v>
+        <v>6.509091211159615</v>
       </c>
       <c r="D7">
-        <v>9.678344274245845</v>
+        <v>5.979121232817363</v>
       </c>
       <c r="E7">
-        <v>13.71552624415191</v>
+        <v>9.738397964591876</v>
       </c>
       <c r="F7">
-        <v>30.38500166663774</v>
+        <v>28.72511361591268</v>
       </c>
       <c r="G7">
-        <v>32.02960193277746</v>
+        <v>38.36348674522105</v>
       </c>
       <c r="H7">
-        <v>14.29021237756461</v>
+        <v>10.7801615210661</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>9.737770837578809</v>
+        <v>6.187414265151014</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>18.02277304767603</v>
+        <v>23.33096569062625</v>
       </c>
       <c r="O7">
-        <v>22.37290964086522</v>
+        <v>20.45975654532551</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4.862097684253743</v>
+        <v>7.189463573577061</v>
       </c>
       <c r="D8">
-        <v>9.668804505872741</v>
+        <v>6.124733252463931</v>
       </c>
       <c r="E8">
-        <v>13.74765091334313</v>
+        <v>10.23177039844082</v>
       </c>
       <c r="F8">
-        <v>30.83525117583891</v>
+        <v>31.08321427605452</v>
       </c>
       <c r="G8">
-        <v>33.07974150062998</v>
+        <v>42.0522189313732</v>
       </c>
       <c r="H8">
-        <v>14.35430495193129</v>
+        <v>11.4175828443755</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>9.732715306555381</v>
+        <v>6.381035107719933</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>18.79364780656867</v>
+        <v>25.1395913014106</v>
       </c>
       <c r="O8">
-        <v>22.66355957609677</v>
+        <v>22.08492388628725</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,28 +753,28 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>5.277361014224199</v>
+        <v>8.392105458334607</v>
       </c>
       <c r="D9">
-        <v>9.662173792963561</v>
+        <v>6.429839005012796</v>
       </c>
       <c r="E9">
-        <v>13.83411694412132</v>
+        <v>11.19797791813012</v>
       </c>
       <c r="F9">
-        <v>31.76813656619932</v>
+        <v>35.44326771832908</v>
       </c>
       <c r="G9">
-        <v>35.12644522169612</v>
+        <v>48.79131590123967</v>
       </c>
       <c r="H9">
-        <v>14.50535820220201</v>
+        <v>12.64412572632531</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>9.736643243213134</v>
+        <v>6.780686767862509</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>20.2273683202997</v>
+        <v>28.34722074380644</v>
       </c>
       <c r="O9">
-        <v>23.27195346769959</v>
+        <v>25.10340968549681</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,28 +800,28 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>5.569097360694976</v>
+        <v>9.198928699467162</v>
       </c>
       <c r="D10">
-        <v>9.664645213267283</v>
+        <v>6.665240540989616</v>
       </c>
       <c r="E10">
-        <v>13.91166879830033</v>
+        <v>11.90226608419381</v>
       </c>
       <c r="F10">
-        <v>32.47761986149001</v>
+        <v>38.47425587020181</v>
       </c>
       <c r="G10">
-        <v>36.60406146725441</v>
+        <v>53.43584814689495</v>
       </c>
       <c r="H10">
-        <v>14.63119705848085</v>
+        <v>13.52519136752951</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>9.747943953925418</v>
+        <v>7.085429777128086</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>21.22223697909767</v>
+        <v>30.48602834203862</v>
       </c>
       <c r="O10">
-        <v>23.73848429676603</v>
+        <v>27.39675231290635</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,28 +847,28 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>5.698257383232274</v>
+        <v>9.550124647747776</v>
       </c>
       <c r="D11">
-        <v>9.66735770262812</v>
+        <v>6.774660461597384</v>
       </c>
       <c r="E11">
-        <v>13.94992080461271</v>
+        <v>12.22079331499508</v>
       </c>
       <c r="F11">
-        <v>32.80423388496732</v>
+        <v>39.87508139136632</v>
       </c>
       <c r="G11">
-        <v>37.26706215651713</v>
+        <v>55.47178374425484</v>
       </c>
       <c r="H11">
-        <v>14.69152319190206</v>
+        <v>13.92094424818167</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>9.754903559497093</v>
+        <v>7.226337152865872</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>21.66018057919901</v>
+        <v>31.41016321374475</v>
       </c>
       <c r="O11">
-        <v>23.95410895876936</v>
+        <v>28.45219724032797</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,28 +894,28 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>5.746609374124008</v>
+        <v>9.680909812559062</v>
       </c>
       <c r="D12">
-        <v>9.668612479726175</v>
+        <v>6.816424549090226</v>
       </c>
       <c r="E12">
-        <v>13.96482610652037</v>
+        <v>12.34111357270751</v>
       </c>
       <c r="F12">
-        <v>32.928354529016</v>
+        <v>40.41070600877301</v>
       </c>
       <c r="G12">
-        <v>37.51653606913369</v>
+        <v>56.23200170232601</v>
       </c>
       <c r="H12">
-        <v>14.71479642540435</v>
+        <v>14.07005371619683</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>9.757799456284602</v>
+        <v>7.280017550329247</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>21.82377585682186</v>
+        <v>31.75299711977163</v>
       </c>
       <c r="O12">
-        <v>24.03617626535241</v>
+        <v>28.84608801258911</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>5.736221423675627</v>
+        <v>9.652839759781367</v>
       </c>
       <c r="D13">
-        <v>9.668332131241389</v>
+        <v>6.807415332874727</v>
       </c>
       <c r="E13">
-        <v>13.96159742434225</v>
+        <v>12.31521405763122</v>
       </c>
       <c r="F13">
-        <v>32.90160525344557</v>
+        <v>40.29566430872178</v>
       </c>
       <c r="G13">
-        <v>37.46288220902905</v>
+        <v>56.06874741963044</v>
       </c>
       <c r="H13">
-        <v>14.70976526868489</v>
+        <v>14.03797400803655</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>9.757164209302486</v>
+        <v>7.26844222319176</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>21.78864458690801</v>
+        <v>31.67947945617571</v>
       </c>
       <c r="O13">
-        <v>24.01848431984365</v>
+        <v>28.76151053455071</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,28 +988,28 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>5.702246767003802</v>
+        <v>9.560928185684139</v>
       </c>
       <c r="D14">
-        <v>9.667456376952487</v>
+        <v>6.778089846576156</v>
       </c>
       <c r="E14">
-        <v>13.95113869827613</v>
+        <v>12.23069824372679</v>
       </c>
       <c r="F14">
-        <v>32.81443723296704</v>
+        <v>39.91928965050482</v>
       </c>
       <c r="G14">
-        <v>37.28761987037135</v>
+        <v>55.53454068085583</v>
       </c>
       <c r="H14">
-        <v>14.69342937958439</v>
+        <v>13.93322674410256</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>9.755136593949604</v>
+        <v>7.23074703085365</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>21.67368539489659</v>
+        <v>31.43851144188478</v>
       </c>
       <c r="O14">
-        <v>23.96085279118066</v>
+        <v>28.48471761170053</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,28 +1035,28 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>5.681362318579184</v>
+        <v>9.504344741312355</v>
       </c>
       <c r="D15">
-        <v>9.666949569670352</v>
+        <v>6.760169869051434</v>
       </c>
       <c r="E15">
-        <v>13.94478690389393</v>
+        <v>12.178890296701</v>
       </c>
       <c r="F15">
-        <v>32.7610980207413</v>
+        <v>39.68782433347764</v>
       </c>
       <c r="G15">
-        <v>37.18005186979817</v>
+        <v>55.20593452152463</v>
       </c>
       <c r="H15">
-        <v>14.68347861846534</v>
+        <v>13.86896749875661</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>9.75392850268393</v>
+        <v>7.207699490713305</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>21.60297336126124</v>
+        <v>31.28998244549474</v>
       </c>
       <c r="O15">
-        <v>23.92560366731023</v>
+        <v>28.31442678986121</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,28 +1082,28 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>5.560580797131255</v>
+        <v>9.175664622077214</v>
       </c>
       <c r="D16">
-        <v>9.664499841887622</v>
+        <v>6.658136028609496</v>
       </c>
       <c r="E16">
-        <v>13.90922814636434</v>
+        <v>11.88140903223813</v>
       </c>
       <c r="F16">
-        <v>32.45634264733502</v>
+        <v>38.38586603059878</v>
       </c>
       <c r="G16">
-        <v>36.56052458280225</v>
+        <v>53.3012726203323</v>
       </c>
       <c r="H16">
-        <v>14.6273154247838</v>
+        <v>13.49922346174127</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>9.747525637272394</v>
+        <v>7.07626635151561</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>21.19330956972086</v>
+        <v>30.424642833461</v>
       </c>
       <c r="O16">
-        <v>23.72445479040506</v>
+        <v>27.32695650319797</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,28 +1129,28 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>5.485539969987388</v>
+        <v>8.970024188362943</v>
       </c>
       <c r="D17">
-        <v>9.663403286992464</v>
+        <v>6.596133767417747</v>
       </c>
       <c r="E17">
-        <v>13.88817041975878</v>
+        <v>11.69840939191616</v>
       </c>
       <c r="F17">
-        <v>32.27029187686021</v>
+        <v>37.60699678779508</v>
       </c>
       <c r="G17">
-        <v>36.17791568812812</v>
+        <v>52.113329094103</v>
       </c>
       <c r="H17">
-        <v>14.59364058654374</v>
+        <v>13.27107680130517</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>9.744062813389085</v>
+        <v>6.996213771912646</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>20.93814219015166</v>
+        <v>29.88120505119275</v>
       </c>
       <c r="O17">
-        <v>23.60187428054179</v>
+        <v>26.71066865462046</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,28 +1176,28 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>5.442046567105474</v>
+        <v>8.850250472442866</v>
       </c>
       <c r="D18">
-        <v>9.662922122700738</v>
+        <v>6.560691653269404</v>
       </c>
       <c r="E18">
-        <v>13.87633891779273</v>
+        <v>11.59297877625583</v>
       </c>
       <c r="F18">
-        <v>32.16365129537094</v>
+        <v>37.15543211203069</v>
       </c>
       <c r="G18">
-        <v>35.95700053572269</v>
+        <v>51.42279547997835</v>
       </c>
       <c r="H18">
-        <v>14.57456264014793</v>
+        <v>13.13937776338453</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>9.742242366009144</v>
+        <v>6.950384065235801</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>20.79000725568362</v>
+        <v>29.56404287680427</v>
       </c>
       <c r="O18">
-        <v>23.53169342163403</v>
+        <v>26.3522780294033</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,28 +1223,28 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>5.427264976841398</v>
+        <v>8.809438333015184</v>
       </c>
       <c r="D19">
-        <v>9.662784914726263</v>
+        <v>6.548729594575796</v>
       </c>
       <c r="E19">
-        <v>13.87238134116863</v>
+        <v>11.55725317758365</v>
       </c>
       <c r="F19">
-        <v>32.12761190950909</v>
+        <v>37.00192508146156</v>
       </c>
       <c r="G19">
-        <v>35.88206529527492</v>
+        <v>51.18773752737192</v>
       </c>
       <c r="H19">
-        <v>14.56815355859889</v>
+        <v>13.09470638681006</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>9.741655441399654</v>
+        <v>6.934904021456339</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>20.73962067985785</v>
+        <v>29.45587200880245</v>
       </c>
       <c r="O19">
-        <v>23.50798931408281</v>
+        <v>26.23025514653919</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,28 +1270,28 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>5.493562905250962</v>
+        <v>8.99206916734361</v>
       </c>
       <c r="D20">
-        <v>9.663504544996403</v>
+        <v>6.602711309067165</v>
       </c>
       <c r="E20">
-        <v>13.8903830880996</v>
+        <v>11.71790832446877</v>
       </c>
       <c r="F20">
-        <v>32.29005976310985</v>
+        <v>37.69027913697855</v>
       </c>
       <c r="G20">
-        <v>36.21873491593544</v>
+        <v>52.24053707386859</v>
       </c>
       <c r="H20">
-        <v>14.59719531999458</v>
+        <v>13.29541285574275</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>9.744413717773465</v>
+        <v>7.004713376579462</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>20.96544799484619</v>
+        <v>29.93953086719064</v>
       </c>
       <c r="O20">
-        <v>23.61489016423105</v>
+        <v>26.77667784349824</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,28 +1317,28 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>5.712241443374218</v>
+        <v>9.58798409068077</v>
       </c>
       <c r="D21">
-        <v>9.667707436493352</v>
+        <v>6.786694554492041</v>
       </c>
       <c r="E21">
-        <v>13.95419934077855</v>
+        <v>12.25553086327318</v>
       </c>
       <c r="F21">
-        <v>32.84002960602491</v>
+        <v>40.03003239495558</v>
       </c>
       <c r="G21">
-        <v>37.33914387723863</v>
+        <v>55.6917389833044</v>
       </c>
       <c r="H21">
-        <v>14.69821609815435</v>
+        <v>13.96401410003993</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>9.755725095049558</v>
+        <v>7.241810301128862</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>21.70751365554066</v>
+        <v>31.50948335633596</v>
       </c>
       <c r="O21">
-        <v>23.9777698935494</v>
+        <v>28.56617373777507</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,28 +1364,28 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>5.851889344498632</v>
+        <v>9.964633318728692</v>
       </c>
       <c r="D22">
-        <v>9.671780550156853</v>
+        <v>6.908856399018698</v>
       </c>
       <c r="E22">
-        <v>13.99835171587834</v>
+        <v>12.60515400898506</v>
       </c>
       <c r="F22">
-        <v>33.20197221035591</v>
+        <v>41.57596472994626</v>
       </c>
       <c r="G22">
-        <v>38.0620167835626</v>
+        <v>57.88485471674149</v>
       </c>
       <c r="H22">
-        <v>14.7667327204538</v>
+        <v>14.41641332740515</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>9.764635163502508</v>
+        <v>7.398645020263152</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>22.17935961385674</v>
+        <v>32.49403281050592</v>
       </c>
       <c r="O22">
-        <v>24.21731728487552</v>
+        <v>29.70211196851895</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,28 +1411,28 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>5.777670146970684</v>
+        <v>9.764755994518486</v>
       </c>
       <c r="D23">
-        <v>9.669485582652163</v>
+        <v>6.843482007667377</v>
       </c>
       <c r="E23">
-        <v>13.97456568595166</v>
+        <v>12.41871867246664</v>
       </c>
       <c r="F23">
-        <v>33.00860570262229</v>
+        <v>40.75460284259935</v>
       </c>
       <c r="G23">
-        <v>37.67714822793447</v>
+        <v>56.71994001804747</v>
       </c>
       <c r="H23">
-        <v>14.72994077576615</v>
+        <v>14.16612312251336</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>9.759741260557734</v>
+        <v>7.314767653528581</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>21.92877110912573</v>
+        <v>31.97238356075506</v>
       </c>
       <c r="O23">
-        <v>24.08927243296245</v>
+        <v>29.09884570571349</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,28 +1458,28 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>5.489936827226254</v>
+        <v>8.982107460260536</v>
       </c>
       <c r="D24">
-        <v>9.663458301277922</v>
+        <v>6.599736967108252</v>
       </c>
       <c r="E24">
-        <v>13.88938188403093</v>
+        <v>11.70909354488098</v>
       </c>
       <c r="F24">
-        <v>32.28112168827893</v>
+        <v>37.65263897070857</v>
       </c>
       <c r="G24">
-        <v>36.20028347563829</v>
+        <v>52.18304994465623</v>
       </c>
       <c r="H24">
-        <v>14.59558734499342</v>
+        <v>13.28441218792022</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>9.744254543125468</v>
+        <v>7.000870101795595</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>20.95310750188672</v>
+        <v>29.91317649911919</v>
       </c>
       <c r="O24">
-        <v>23.60900476706787</v>
+        <v>26.74684780634022</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,28 +1505,28 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>5.167123255842959</v>
+        <v>8.080500567419973</v>
       </c>
       <c r="D25">
-        <v>9.662676225994339</v>
+        <v>6.34528046099902</v>
       </c>
       <c r="E25">
-        <v>13.80823951132426</v>
+        <v>10.93728959374534</v>
       </c>
       <c r="F25">
-        <v>31.51106847167192</v>
+        <v>34.29354948402274</v>
       </c>
       <c r="G25">
-        <v>34.57607532276501</v>
+        <v>47.01110440813974</v>
       </c>
       <c r="H25">
-        <v>14.46183719371586</v>
+        <v>12.31551423367417</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>9.734100479248383</v>
+        <v>6.670553379796544</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>19.84905939529495</v>
+        <v>27.51708508088413</v>
       </c>
       <c r="O25">
-        <v>23.10364695539359</v>
+        <v>24.30601573933719</v>
       </c>
     </row>
   </sheetData>
